--- a/www/templates/tools_manifest.xlsx
+++ b/www/templates/tools_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF50E5-C5E1-0F4A-AE59-4A4F68DE2E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03CFC4-A260-D14A-AFE4-F754E451CEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="460" windowWidth="26000" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="4020" yWindow="460" windowWidth="21240" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,10 @@
     <t>RNA</t>
   </si>
   <si>
-    <t>homepageUrl</t>
-  </si>
-  <si>
-    <t>toolName</t>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>externalLink</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -612,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -645,29 +645,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." xr:uid="{42AE066A-3AC0-274A-AF6F-9F21BC93F38B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{208730FA-B260-FC48-BC87-C6E59180E275}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$8</xm:f>
+            <xm:f>standard_terms!$B$35:$B$51</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." xr:uid="{D9D2E5AB-1E2F-2F41-AEFF-A3031B55C56A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5BC57D0B-D300-3346-919B-EB594AF53DBE}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$18:$B$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3DB35B8D-5F42-694B-A22F-DE7E5A417A1B}">
           <x14:formula1>
             <xm:f>standard_terms!$B$9:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." xr:uid="{8A7E3CB1-CA4F-BD4C-BFC9-830D22FA74B5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{50D64434-2F4B-7849-81C6-4C0F4EC724F1}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$18:$B$34</xm:f>
+            <xm:f>standard_terms!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{A3DB2BB0-8C27-1944-B73F-175F54DF0B37}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$35:$B$51</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>

--- a/www/templates/tools_manifest.xlsx
+++ b/www/templates/tools_manifest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03CFC4-A260-D14A-AFE4-F754E451CEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FEA501-B00A-6E44-B163-0ED1C172E81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="21240" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="4020" yWindow="460" windowWidth="24640" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$415</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$419</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
   <si>
     <t>description</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>externalLink</t>
+  </si>
+  <si>
+    <t>clinical records</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Perl</t>
   </si>
 </sst>
 </file>
@@ -647,19 +656,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{208730FA-B260-FC48-BC87-C6E59180E275}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$35:$B$51</xm:f>
+            <xm:f>standard_terms!$B$38:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5BC57D0B-D300-3346-919B-EB594AF53DBE}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$18:$B$34</xm:f>
+            <xm:f>standard_terms!$B$20:$B$37</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3DB35B8D-5F42-694B-A22F-DE7E5A417A1B}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$9:$B$17</xm:f>
+            <xm:f>standard_terms!$B$9:$B$19</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -792,9 +801,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -984,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -992,10 +1001,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1003,10 +1012,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1017,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1028,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1039,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1050,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1061,7 +1070,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1072,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1083,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1094,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1105,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1116,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1127,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -1138,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1149,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1160,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -1171,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -1179,10 +1188,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -1190,10 +1199,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1201,10 +1210,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1215,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1226,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -1237,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1248,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1259,7 +1268,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1270,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -1281,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1292,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1303,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1314,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1325,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -1336,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -1347,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -1358,27 +1367,55 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
@@ -1792,11 +1829,27 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C415" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A162:B281">
-    <sortCondition ref="B281"/>
+  <autoFilter ref="A1:C419" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A166:B285">
+    <sortCondition ref="B285"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/templates/tools_manifest.xlsx
+++ b/www/templates/tools_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FEA501-B00A-6E44-B163-0ED1C172E81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D79682-8994-404B-A23D-06A3A26A6BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="24640" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="24640" windowHeight="17500" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$419</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$421</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
   <si>
     <t>description</t>
   </si>
@@ -221,13 +221,22 @@
   </si>
   <si>
     <t>Perl</t>
+  </si>
+  <si>
+    <t>Workflow Description Language</t>
+  </si>
+  <si>
+    <t>NetLogo</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -251,13 +260,24 @@
       <color theme="1"/>
       <name val="SF Mono"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SF Mono Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +306,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +629,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -619,23 +641,23 @@
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -656,27 +678,27 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{208730FA-B260-FC48-BC87-C6E59180E275}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$38:$B$55</xm:f>
+            <xm:f>standard_terms!$B$40:$B$57</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5BC57D0B-D300-3346-919B-EB594AF53DBE}">
           <x14:formula1>
-            <xm:f>standard_terms!$B$20:$B$37</xm:f>
+            <xm:f>standard_terms!$B$22:$B$39</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3DB35B8D-5F42-694B-A22F-DE7E5A417A1B}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$9:$B$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{50D64434-2F4B-7849-81C6-4C0F4EC724F1}">
           <x14:formula1>
             <xm:f>standard_terms!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{1B0EE8E8-E7B4-224D-97BB-851144F34289}">
+          <x14:formula1>
+            <xm:f>standard_terms!$B$9:$B$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -690,14 +712,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" customWidth="1"/>
     <col min="3" max="3" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -708,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="42">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
@@ -719,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -728,43 +750,51 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -773,7 +803,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="28">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -784,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="28">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -801,18 +831,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="83.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -834,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -845,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -867,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -878,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -889,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -900,73 +930,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -977,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -988,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -999,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1021,835 +1049,857 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A1:C419" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A166:B285">
-    <sortCondition ref="B285"/>
+  <autoFilter ref="A1:C421" xr:uid="{FA20B5A7-A3E2-3F42-944A-67FC92CE6A4B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A168:B287">
+    <sortCondition ref="B287"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
